--- a/modules/task1_prime_numbers/Denisov_D/visual_check.xlsx
+++ b/modules/task1_prime_numbers/Denisov_D/visual_check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Числа Кармайкла</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Простые числа</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1926,11 +1929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133710208"/>
-        <c:axId val="133713280"/>
+        <c:axId val="137183616"/>
+        <c:axId val="137186688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133710208"/>
+        <c:axId val="137183616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1971,12 +1974,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="133713280"/>
+        <c:crossAx val="137186688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133713280"/>
+        <c:axId val="137186688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2032,7 +2035,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="133710208"/>
+        <c:crossAx val="137183616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2381,10 +2384,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:G91"/>
+  <dimension ref="B1:Y91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.6" x14ac:dyDescent="0.2"/>
@@ -2715,7 +2718,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>31405501</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>36765901</v>
       </c>
@@ -2754,8 +2757,11 @@
       <c r="G18" s="5">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+      <c r="Y18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>39353665</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>40622401</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>5.6399999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>53245921</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>60112885</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>69331969</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>75681541</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>6.93E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>79411201</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>6.1199999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>82929001</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>83966401</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>87318001</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>93869665</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>6.88E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>96895441</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>99830641</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>5.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="18.350000000000001" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>99861985</v>
       </c>
